--- a/TRenesas_MCU_35H/bom_price.xlsx
+++ b/TRenesas_MCU_35H/bom_price.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1127,356 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC#V0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>深圳市嘉营实业科技有限公司</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LQFP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>￥70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2021/08</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5k-10k</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>￥560</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5k-10k</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>深圳市荣丰高科电子商行</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>QFP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5k-10k</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>深圳市荣丰高科电子商行</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>QFP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>￥130</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>￥85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
